--- a/diccionario_datos_covid19/Descriptores_0419.xlsx
+++ b/diccionario_datos_covid19/Descriptores_0419.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5424e8ce283081d5/Desktop/DATOS COVID19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\missa\Documents\Universidad UG\Semestre4\Probabilidad\proyecto_final\diccionario_datos_covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D1A58D1A-218E-425B-9173-4E70978B51BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6EEFC70-8A10-4658-B2F1-D06A2B48BB26}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2111D5C0-784B-457A-81E3-CBDFB3855309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{C2787445-C159-4609-86A2-1BD176FA7828}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2787445-C159-4609-86A2-1BD176FA7828}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Nº</t>
   </si>
@@ -45,24 +45,9 @@
     <t>FORMATO O FUENTE</t>
   </si>
   <si>
-    <t>FECHA_ACTUALIZACION</t>
-  </si>
-  <si>
-    <t>La base de datos se alimenta diariamente, esta variable permite identificar la fecha de la ultima actualizacion.</t>
-  </si>
-  <si>
     <t>AAAA-MM-DD</t>
   </si>
   <si>
-    <t>ORIGEN</t>
-  </si>
-  <si>
-    <t>La vigilancia centinela se realiza a través del sistema de unidades de salud monitoras de enfermedades respiratorias (USMER). Las USMER incluyen unidades médicas del primer, segundo o tercer nivel de atención y también participan como USMER las unidades de tercer nivel que por sus características contribuyen a ampliar el panorama de información epidemiológica, entre ellas las que cuenten con especialidad de neumología, infectología o pediatría. (Categorías en Catalógo Anexo).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATÁLOGO: ORIGEN                                                              </t>
-  </si>
-  <si>
     <t>SECTOR</t>
   </si>
   <si>
@@ -90,27 +75,12 @@
     <t xml:space="preserve">CATÁLOGO: SEXO                              </t>
   </si>
   <si>
-    <t>ENTIDAD_NAC</t>
-  </si>
-  <si>
-    <t>Identifica la entidad de nacimiento del paciente.</t>
-  </si>
-  <si>
     <t>ENTIDAD_RES</t>
   </si>
   <si>
     <t>Identifica la entidad de residencia del paciente.</t>
   </si>
   <si>
-    <t>MUNICIPIO_RES</t>
-  </si>
-  <si>
-    <t>Identifica el municipio de residencia del paciente.</t>
-  </si>
-  <si>
-    <t>CATALÓGO: MUNICIPIOS</t>
-  </si>
-  <si>
     <t>TIPO_PACIENTE</t>
   </si>
   <si>
@@ -162,27 +132,12 @@
     <t>NÚMERICA EN AÑOS</t>
   </si>
   <si>
-    <t>NACIONALIDAD</t>
-  </si>
-  <si>
-    <t>Identifica si el paciente es mexicano o extranjero.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CATÁLOGO: NACIONALIDAD </t>
-  </si>
-  <si>
     <t>EMBARAZO</t>
   </si>
   <si>
     <t>Identifica si la paciente está embarazada.</t>
   </si>
   <si>
-    <t>HABLA_LENGUA_INDIG</t>
-  </si>
-  <si>
-    <t>Identifica si el paciente habla lengua índigena.</t>
-  </si>
-  <si>
     <t>DIABETES</t>
   </si>
   <si>
@@ -213,12 +168,6 @@
     <t xml:space="preserve">Identifica si el paciente tiene un diagnóstico de hipertensión. </t>
   </si>
   <si>
-    <t>OTRAS_COM</t>
-  </si>
-  <si>
-    <t>Identifica si el paciente tiene diagnóstico de otras enfermedades.</t>
-  </si>
-  <si>
     <t>CARDIOVASCULAR</t>
   </si>
   <si>
@@ -258,34 +207,10 @@
     <t>CATÁLOGO: RESULTADO</t>
   </si>
   <si>
-    <t>MIGRANTE</t>
-  </si>
-  <si>
-    <t>Identifica si el paciente es una persona migrante.</t>
-  </si>
-  <si>
-    <t>PAIS_NACIONALIDAD</t>
-  </si>
-  <si>
-    <t>Identifica la nacionalidad del paciente.</t>
-  </si>
-  <si>
-    <t>PAIS_ORIGEN</t>
-  </si>
-  <si>
-    <t>Identifica el país del que partió el paciente rumbo a México.</t>
-  </si>
-  <si>
     <t>UCI</t>
   </si>
   <si>
     <t>Identifica si el paciente requirió ingresar a una Unidad de Cuidados Intensivos.</t>
-  </si>
-  <si>
-    <t>TEXTO, 99= SE IGNORA</t>
-  </si>
-  <si>
-    <t>TEXTO, 97= NO APLICA</t>
   </si>
   <si>
     <t>Número identificador del caso</t>
@@ -434,7 +359,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -730,13 +655,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEB99F8-EF2B-4228-8C00-AA8C0A80CA6B}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D2" activeCellId="1" sqref="B2:B26 D2:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="6"/>
     <col min="2" max="2" width="26" style="7" customWidth="1"/>
@@ -764,13 +689,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -778,27 +703,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -806,13 +731,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -820,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -854,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -868,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -882,7 +807,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -890,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -904,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -918,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -938,7 +863,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -952,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -960,13 +885,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -974,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -988,13 +913,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1002,13 +927,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1016,13 +941,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1030,13 +955,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1044,13 +969,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1058,13 +983,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1072,13 +997,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1086,13 +1011,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1100,178 +1025,38 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="7"/>
+      <c r="D30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
